--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail3 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>4.391981212728713e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3651582819936205</v>
+        <v>1.716907171542307e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.151984528088069</v>
+        <v>7.693927599154955e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.716907171542307e-06</v>
+        <v>0.01227482444753268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.693927599154955e-06</v>
+        <v>0.1948599600458601</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01227482444753268</v>
+        <v>0.03809600576501816</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1948599600458601</v>
+        <v>1.919358638883552</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03809600576501816</v>
+        <v>1.964854848691447</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.931319485300453</v>
+        <v>5.514537670038738</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.964854848691447</v>
+        <v>1.510234923548923e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.514537670038738</v>
+        <v>356599557.579696</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.510234923548923e-15</v>
+        <v>3.378013079458691e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>356599557.579696</v>
+        <v>192.0463727843952</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.378013079458691e-07</v>
+        <v>0.0001848716982662772</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>192.0463727843952</v>
+        <v>9.381453833120927</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001848716982662772</v>
+        <v>1.941551953098757</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.381453833120927</v>
+        <v>0.01627086801362958</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.941551953098757</v>
+        <v>3.889228486463274</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01627086801362958</v>
+        <v>0.9609255260273191</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.889228486463274</v>
+        <v>1.316836175057286</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9609255260273191</v>
+        <v>87</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.316836175057286</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.333982673692335</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>4.333733177636395e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3159143054851378</v>
+        <v>1.440895706298827e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.275645040482261</v>
+        <v>7.696759810371696e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.440895706298827e-06</v>
+        <v>0.0006480950050746431</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.696759810371696e-06</v>
+        <v>0.1802129102554015</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0006480950050746431</v>
+        <v>0.03244952671836872</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1802129102554015</v>
+        <v>1.92606019443239</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03244952671836872</v>
+        <v>2.392959434063127</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94626929141391</v>
+        <v>6.72880736068841</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.392959434063127</v>
+        <v>2.928845006909409e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.72880736068841</v>
+        <v>1829946571.57314</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.928845006909409e-16</v>
+        <v>6.588626674180721e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1829946571.57314</v>
+        <v>980.7836322092272</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.588626674180721e-08</v>
+        <v>9.739505787361501e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>980.7836322092272</v>
+        <v>8.938825765804848</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.739505787361501e-05</v>
+        <v>1.187008318827651</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.938825765804848</v>
+        <v>0.007782118942578286</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.187008318827651</v>
+        <v>4.270251909130448</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007782118942578286</v>
+        <v>0.9604789433035354</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.270251909130448</v>
+        <v>1.125907664060373</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9604789433035354</v>
+        <v>98</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.125907664060373</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.255992218133248</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>4.37307033728714e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3363146332764644</v>
+        <v>1.456396364010379e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.242875349993393</v>
+        <v>7.694379701056112e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.456396364010379e-06</v>
+        <v>-0.01155939547733417</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.694379701056112e-06</v>
+        <v>0.1567675858085224</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01155939547733417</v>
+        <v>0.02467969520226704</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1567675858085224</v>
+        <v>1.931759165162825</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02467969520226704</v>
+        <v>3.077795042498157</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.955614975269627</v>
+        <v>5.629802666385421</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.077795042498157</v>
+        <v>1.829704077142115e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.629802666385421</v>
+        <v>2817131300.188032</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.829704077142115e-16</v>
+        <v>4.279079577133095e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2817131300.188032</v>
+        <v>1452.095012387715</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.279079577133095e-08</v>
+        <v>9.605594581068091e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1452.095012387715</v>
+        <v>8.956800728663593</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.605594581068091e-05</v>
+        <v>1.194552058198433</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.956800728663593</v>
+        <v>0.007706019024468253</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.194552058198433</v>
+        <v>4.204998537035788</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007706019024468253</v>
+        <v>0.9600998384939622</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.204998537035788</v>
+        <v>0.9767087525176115</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9600998384939622</v>
+        <v>123</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9767087525176115</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.148797245323737</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>4.479272864834755e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3629308223932678</v>
+        <v>1.487947109017738e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.22590177302639</v>
+        <v>7.686607545143657e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.487947109017738e-06</v>
+        <v>-0.02323027684443171</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.686607545143657e-06</v>
+        <v>0.1270031443589737</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02323027684443171</v>
+        <v>0.01664399154948133</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1270031443589737</v>
+        <v>1.934637043585125</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01664399154948133</v>
+        <v>2.985191618977511</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.957039618155375</v>
+        <v>5.643422692378125</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.985191618977511</v>
+        <v>1.820882995922794e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.643422692378125</v>
+        <v>2814129690.572395</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.820882995922794e-16</v>
+        <v>4.292108605216149e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2814129690.572395</v>
+        <v>1442.016589845171</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.292108605216149e-08</v>
+        <v>8.642293541108891e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1442.016589845171</v>
+        <v>7.887575130187817</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.642293541108891e-05</v>
+        <v>1.442247609975529</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.887575130187817</v>
+        <v>0.005376702799957193</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.442247609975529</v>
+        <v>4.653904456038189</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005376702799957193</v>
+        <v>0.9588651417702273</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.653904456038189</v>
+        <v>0.9482939044930649</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9588651417702273</v>
+        <v>128</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9482939044930649</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.650775838701533</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>4.614491647976394e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3608672553068205</v>
+        <v>1.519029895750401e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.255714031698252</v>
+        <v>7.673705618265668e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.519029895750401e-06</v>
+        <v>-0.03299269987280738</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.673705618265668e-06</v>
+        <v>0.09727904001570614</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03299269987280738</v>
+        <v>0.01053572016991548</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09727904001570614</v>
+        <v>1.931566639416057</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01053572016991548</v>
+        <v>3.155759954548747</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.956681399266469</v>
+        <v>5.725851205275632</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.155759954548747</v>
+        <v>1.768834028493263e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.725851205275632</v>
+        <v>2902724934.942301</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.768834028493263e-16</v>
+        <v>4.154730984442717e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2902724934.942301</v>
+        <v>1490.386306807733</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.154730984442717e-08</v>
+        <v>0.0001007001704538541</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1490.386306807733</v>
+        <v>8.49670576785816</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001007001704538541</v>
+        <v>1.917046438329667</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.49670576785816</v>
+        <v>0.00726994900253636</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.917046438329667</v>
+        <v>4.861851865701312</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00726994900253636</v>
+        <v>0.9583940675196557</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.861851865701312</v>
+        <v>0.9769017602660253</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9583940675196557</v>
+        <v>140</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9769017602660253</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.045207287505389</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>4.748977784512117e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3335988498464317</v>
+        <v>1.549455221264087e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.294113785912981</v>
+        <v>7.656544074595597e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.549455221264087e-06</v>
+        <v>-0.03966707072954556</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.656544074595597e-06</v>
+        <v>0.07645862427960426</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03966707072954556</v>
+        <v>0.007413192792887566</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07645862427960426</v>
+        <v>1.928031736142143</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007413192792887566</v>
+        <v>3.132211646016012</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.956795701499073</v>
+        <v>5.76941702765777</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.132211646016012</v>
+        <v>1.742221370867833e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.76941702765777</v>
+        <v>2832127000.046005</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.742221370867833e-16</v>
+        <v>4.235686707245779e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2832127000.046005</v>
+        <v>1397.425890911564</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.235686707245779e-08</v>
+        <v>9.638846943029828e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1397.425890911564</v>
+        <v>8.635328530483998</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.638846943029828e-05</v>
+        <v>1.466360099389445</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.635328530483998</v>
+        <v>0.007187582025267749</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.466360099389445</v>
+        <v>4.619635175064605</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007187582025267749</v>
+        <v>0.9590218534411121</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.619635175064605</v>
+        <v>0.9782497139201661</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9590218534411121</v>
+        <v>136</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9782497139201661</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.596205430983012</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>4.870170411734626e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2961130895549849</v>
+        <v>1.579118867686875e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.321375966913468</v>
+        <v>7.636379175141588e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.579118867686875e-06</v>
+        <v>-0.04384952228255382</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.636379175141588e-06</v>
+        <v>0.06439807439653221</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04384952228255382</v>
+        <v>0.006066953773280968</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06439807439653221</v>
+        <v>1.92489935974201</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006066953773280968</v>
+        <v>3.080873892821012</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.956697867588668</v>
+        <v>5.819248582395044</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.080873892821012</v>
+        <v>1.712511046960718e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.819248582395044</v>
+        <v>2830748939.936536</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.712511046960718e-16</v>
+        <v>4.237671457040668e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2830748939.936536</v>
+        <v>1372.259001896796</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.237671457040668e-08</v>
+        <v>0.0001018775182365732</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1372.259001896796</v>
+        <v>9.398871392344923</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001018775182365732</v>
+        <v>1.149717452618964</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.398871392344923</v>
+        <v>0.008999736021907744</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.149717452618964</v>
+        <v>4.121009778337714</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008999736021907744</v>
+        <v>0.9595748052825455</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.121009778337714</v>
+        <v>0.9584232714246294</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9595748052825455</v>
+        <v>140</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9584232714246294</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.899135780897031</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>4.974662161424095e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2568457106374572</v>
+        <v>1.608173021394542e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.336516362099905</v>
+        <v>7.613946601330942e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.608173021394542e-06</v>
+        <v>-0.04718153823105628</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.613946601330942e-06</v>
+        <v>0.05479285256434514</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04718153823105628</v>
+        <v>0.005226011111215624</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05479285256434514</v>
+        <v>1.929623387659506</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.005226011111215624</v>
+        <v>2.916664075714981</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.96107282816033</v>
+        <v>5.898789838745378</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.916664075714981</v>
+        <v>1.666638284012768e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.898789838745378</v>
+        <v>2970233100.81824</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.666638284012768e-16</v>
+        <v>4.026012552090577e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2970233100.81824</v>
+        <v>1470.355738880809</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.026012552090577e-08</v>
+        <v>0.000102477869158898</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1470.355738880809</v>
+        <v>9.265158384722943</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000102477869158898</v>
+        <v>1.167725714168072</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.265158384722943</v>
+        <v>0.008797024107803884</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.167725714168072</v>
+        <v>4.048846869172523</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008797024107803884</v>
+        <v>0.960275686409391</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.048846869172523</v>
+        <v>0.969345583302159</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.960275686409391</v>
+        <v>158</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.969345583302159</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.711552590070996</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>5.058558620884868e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2208063233854125</v>
+        <v>1.636740184086116e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.342611929060906</v>
+        <v>7.5894099859704e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.636740184086116e-06</v>
+        <v>-0.05062945273277891</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.5894099859704e-06</v>
+        <v>0.04354577667527956</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05062945273277891</v>
+        <v>0.004456970008580237</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.04354577667527956</v>
+        <v>1.920734016817444</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004456970008580237</v>
+        <v>2.792072634725447</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.954133364678866</v>
+        <v>5.983901694420381</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.792072634725447</v>
+        <v>1.619564692317335e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.983901694420381</v>
+        <v>3089656327.132193</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.619564692317335e-16</v>
+        <v>3.878798754367762e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>3089656327.132193</v>
+        <v>1546.032603926953</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.878798754367762e-08</v>
+        <v>9.084249798728573e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1546.032603926953</v>
+        <v>8.620225707658046</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.084249798728573e-05</v>
+        <v>1.265098850617113</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.620225707658046</v>
+        <v>0.006750350798404761</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.265098850617113</v>
+        <v>4.498251316786034</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006750350798404761</v>
+        <v>0.9599290869769248</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.498251316786034</v>
+        <v>0.9874371828381782</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9599290869769248</v>
+        <v>182</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9874371828381782</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.342289589089269</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>5.117051055717928e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1933035441662475</v>
+        <v>1.664451877897091e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.346778645269578</v>
+        <v>7.562793161021206e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.664451877897091e-06</v>
+        <v>-0.05362939733979045</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.562793161021206e-06</v>
+        <v>0.03289790498425681</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05362939733979045</v>
+        <v>0.003958000739224821</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03289790498425681</v>
+        <v>1.918568353362892</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003958000739224821</v>
+        <v>2.93817805347606</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.956521015077039</v>
+        <v>6.064724846898725</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.93817805347606</v>
+        <v>1.576685220661857e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.064724846898725</v>
+        <v>3149271205.639649</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.576685220661857e-16</v>
+        <v>3.805155438205122e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3149271205.639649</v>
+        <v>1563.742073988953</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.805155438205122e-08</v>
+        <v>8.621107152921508e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1563.742073988953</v>
+        <v>8.826583303474422</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>8.621107152921508e-05</v>
+        <v>1.793268073882869</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.826583303474422</v>
+        <v>0.006716581543535558</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.793268073882869</v>
+        <v>5.30093590014074</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006716581543535558</v>
+        <v>0.9610959907204045</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.30093590014074</v>
+        <v>0.9678087017935622</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9610959907204045</v>
+        <v>184</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9678087017935622</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>5.170376356764233</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>5.156999650168709e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1735137811028562</v>
+        <v>1.690124351629603e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.354751325671633</v>
+        <v>7.534904631379983e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.690124351629603e-06</v>
+        <v>-0.05461952350624542</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.534904631379983e-06</v>
+        <v>0.03037797548160057</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05461952350624542</v>
+        <v>0.00390632139148057</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03037797548160057</v>
+        <v>1.9145863536422</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00390632139148057</v>
+        <v>2.859608186728575</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.957179818440781</v>
+        <v>6.271487459927647</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.859608186728575</v>
+        <v>1.474436536604963e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.271487459927647</v>
+        <v>3529078927.055786</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.474436536604963e-16</v>
+        <v>3.41216785347964e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3529078927.055786</v>
+        <v>1836.321956082752</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.41216785347964e-08</v>
+        <v>7.625893758703268e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1836.321956082752</v>
+        <v>10.33236267515836</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>7.625893758703268e-05</v>
+        <v>1.779645444390525</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.33236267515836</v>
+        <v>0.008141230188289253</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.779645444390525</v>
+        <v>6.387598393327985</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008141230188289253</v>
+        <v>0.9607655662505724</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>6.387598393327985</v>
+        <v>0.9632485704963536</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9607655662505724</v>
+        <v>194</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9632485704963536</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>8.826935474960756</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>5.190211110918408e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1552546827786375</v>
+        <v>1.694911253373922e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.363562160064874</v>
+        <v>7.506665403252686e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.694911253373922e-06</v>
+        <v>-0.05442615625784256</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.506665403252686e-06</v>
+        <v>0.03009262807092693</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05442615625784256</v>
+        <v>0.003867810578065608</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.03009262807092693</v>
+        <v>1.917571441920228</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003867810578065608</v>
+        <v>2.815593746369406</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.958324452311615</v>
+        <v>6.453727523002314</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.815593746369406</v>
+        <v>1.26855038552387e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.453727523002314</v>
+        <v>4119933052.988088</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.26855038552387e-16</v>
+        <v>2.922872186581762e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4119933052.988088</v>
+        <v>2153.218188230186</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.922872186581762e-08</v>
+        <v>3.212019364601612e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2153.218188230186</v>
+        <v>12.66831757230263</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.212019364601612e-05</v>
+        <v>1.119767846059024</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.66831757230263</v>
+        <v>0.005154850073547147</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.119767846059024</v>
+        <v>7.288931779130166</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005154850073547147</v>
+        <v>0.9603749877911376</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>7.288931779130166</v>
+        <v>0.9894902713453563</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9603749877911376</v>
+        <v>194</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9894902713453563</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>12.68747273620759</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>5.22194765987021e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1351368818423211</v>
+        <v>1.686733692199256e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.370202887535191</v>
+        <v>7.478476871803381e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.686733692199256e-06</v>
+        <v>-0.05383470011381131</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.478476871803381e-06</v>
+        <v>0.02991627090658766</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05383470011381131</v>
+        <v>0.003793151432075203</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02991627090658766</v>
+        <v>1.922520043649357</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003793151432075203</v>
+        <v>3.061307397667172</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.962964285744914</v>
+        <v>6.268373967352419</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.061307397667172</v>
+        <v>1.344680713782197e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.268373967352419</v>
+        <v>3862614680.16444</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.344680713782197e-16</v>
+        <v>3.119795269582972e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>3862614680.16444</v>
+        <v>2006.235678117082</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.119795269582972e-08</v>
+        <v>4.510822834114131e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2006.235678117082</v>
+        <v>11.79937816475662</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>4.510822834114131e-05</v>
+        <v>1.048557628801582</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.79937816475662</v>
+        <v>0.006280207754349805</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.048557628801582</v>
+        <v>6.790820836498461</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006280207754349805</v>
+        <v>0.9598655782266247</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>6.790820836498461</v>
+        <v>0.7942268836333886</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9598655782266247</v>
+        <v>185</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7942268836333886</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>11.29262452287406</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>5.253058376916363e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1123115779431912</v>
+        <v>1.676415305583998e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.373867711160625</v>
+        <v>7.450451937497414e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.676415305583998e-06</v>
+        <v>-0.05318811060596802</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.450451937497414e-06</v>
+        <v>0.02975857487171137</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05318811060596802</v>
+        <v>0.003714582428702355</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02975857487171137</v>
+        <v>1.921573391913018</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003714582428702355</v>
+        <v>3.104751196451714</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.96336176372242</v>
+        <v>6.642533014627578</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.104751196451714</v>
+        <v>9.990668507208643e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.642533014627578</v>
+        <v>5084828540.83551</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.990668507208643e-17</v>
+        <v>2.37053631648681e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>5084828540.83551</v>
+        <v>2583.13542659682</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.37053631648681e-08</v>
+        <v>4.743141142659874e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2583.13542659682</v>
+        <v>12.05094607118491</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.743141142659874e-05</v>
+        <v>1.063839603249343</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.05094607118491</v>
+        <v>0.006888241011272027</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.063839603249343</v>
+        <v>6.767386234243194</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006888241011272027</v>
+        <v>0.9599228015976845</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>6.767386234243194</v>
+        <v>0.8030899113851114</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9599228015976845</v>
+        <v>191</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8030899113851114</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>191</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>11.25010965609119</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>5.282922183245353e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0870418396445812</v>
+        <v>1.66892989626648e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.374453127764426</v>
+        <v>7.422580333040883e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.66892989626648e-06</v>
+        <v>-0.05265090136182305</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.422580333040883e-06</v>
+        <v>0.02962600364321557</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05265090136182305</v>
+        <v>0.003649896638175087</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02962600364321557</v>
+        <v>1.921433538928669</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003649896638175087</v>
+        <v>3.866914927155459</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.961780475698305</v>
+        <v>5.989034476406927</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.866914927155459</v>
+        <v>9.109315229500843e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.989034476406927</v>
+        <v>5520992805.808229</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.109315229500843e-17</v>
+        <v>2.179062392784389e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>5520992805.808229</v>
+        <v>2776.643310907009</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.179062392784389e-08</v>
+        <v>3.554167301858953e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2776.643310907009</v>
+        <v>11.41924464778638</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.554167301858953e-05</v>
+        <v>1.174469202988126</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.41924464778638</v>
+        <v>0.004634603891705173</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.174469202988126</v>
+        <v>7.263351635506886</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.004634603891705173</v>
+        <v>0.9591371546050242</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>7.263351635506886</v>
+        <v>0.856784546631722</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9591371546050242</v>
+        <v>193</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.856784546631722</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>193</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>12.75738634556463</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>5.310652380736796e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.06011214566134495</v>
+        <v>1.668026593404981e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.371849537975227</v>
+        <v>7.394784030552707e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.668026593404981e-06</v>
+        <v>-0.0523465089865341</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.394784030552707e-06</v>
+        <v>0.0294748909595329</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0523465089865341</v>
+        <v>0.003609099069260332</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0294748909595329</v>
+        <v>1.918922700280381</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003609099069260332</v>
+        <v>3.764606871990829</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.960462982957497</v>
+        <v>5.689727920789197</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.764606871990829</v>
+        <v>8.263855832607071e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.689727920789197</v>
+        <v>5902511282.759268</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.263855832607071e-17</v>
+        <v>2.033357533322757e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>5902511282.759268</v>
+        <v>2879.09757617793</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.033357533322757e-08</v>
+        <v>3.431045179357068e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2879.09757617793</v>
+        <v>9.126246372204356</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.431045179357068e-05</v>
+        <v>1.559489586945138</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.126246372204356</v>
+        <v>0.002857661701503566</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.559489586945138</v>
+        <v>7.24894411348612</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.002857661701503566</v>
+        <v>0.958871836206421</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.24894411348612</v>
+        <v>0.845508146987674</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.958871836206421</v>
+        <v>196</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.845508146987674</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>12.38782887424023</v>
       </c>
     </row>
@@ -1951,72 +1843,66 @@
         <v>5.334013944589798e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.03268740400609181</v>
+        <v>1.678659464222438e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.366749935785741</v>
+        <v>7.366921028096216e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.678659464222438e-06</v>
+        <v>-0.05241505169116775</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.366921028096216e-06</v>
+        <v>0.02910322049759136</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05241505169116775</v>
+        <v>0.003594600551678233</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02910322049759136</v>
+        <v>1.917637377792355</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003594600551678233</v>
+        <v>3.584844089266246</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.958534899701421</v>
+        <v>5.808118240748099</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.584844089266246</v>
+        <v>8.008421223119321e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.808118240748099</v>
+        <v>6035233802.708582</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.008421223119321e-17</v>
+        <v>1.988766346593533e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>6035233802.708582</v>
+        <v>2916.991114539953</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.988766346593533e-08</v>
+        <v>3.422994965223349e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2916.991114539953</v>
+        <v>7.478912796108471</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.422994965223349e-05</v>
+        <v>1.313835974412839</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.478912796108471</v>
+        <v>0.001914622680062894</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.313835974412839</v>
+        <v>6.742769620289996</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.001914622680062894</v>
+        <v>0.9594442118370237</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>6.742769620289996</v>
+        <v>0.9031488262190883</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9594442118370237</v>
+        <v>185</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9031488262190883</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>10.79882838346935</v>
       </c>
     </row>
@@ -2031,72 +1917,66 @@
         <v>5.349037909055355e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.006358964860582549</v>
+        <v>1.696556106039597e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.361154962284382</v>
+        <v>7.338799233431781e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.696556106039597e-06</v>
+        <v>-0.05285741331634613</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.338799233431781e-06</v>
+        <v>0.028272674686082</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05285741331634613</v>
+        <v>0.003593546366135063</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.028272674686082</v>
+        <v>1.914206676769629</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003593546366135063</v>
+        <v>3.4362905385095</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.957922296411397</v>
+        <v>6.040911743157896</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.4362905385095</v>
+        <v>1.025751475318473e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.040911743157896</v>
+        <v>4754837195.133063</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.025751475318473e-16</v>
+        <v>2.521527172008338e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>4754837195.133063</v>
+        <v>2319.067838329395</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.521527172008338e-08</v>
+        <v>5.524101208234968e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2319.067838329395</v>
+        <v>7.314430133682338</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>5.524101208234968e-05</v>
+        <v>1.415078484843417</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.314430133682338</v>
+        <v>0.002955443210396557</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.415078484843417</v>
+        <v>5.834472910686585</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.002955443210396557</v>
+        <v>0.9601143912412005</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>5.834472910686585</v>
+        <v>0.9317651890050863</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9601143912412005</v>
+        <v>158</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9317651890050863</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>7.648020525510637</v>
       </c>
     </row>
@@ -2111,72 +1991,66 @@
         <v>5.355442125816829e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0192792735542214</v>
+        <v>1.691366585711852e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.355625665628685</v>
+        <v>7.310519540730137e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.691366585711852e-06</v>
+        <v>-0.05263580002760024</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.310519540730137e-06</v>
+        <v>0.02827702081902424</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05263580002760024</v>
+        <v>0.003570184220455664</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02827702081902424</v>
+        <v>1.912519731049639</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003570184220455664</v>
+        <v>3.248505945804214</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.952664861984299</v>
+        <v>5.655276136740209</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.248505945804214</v>
+        <v>1.461925224616185e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.655276136740209</v>
+        <v>3431159143.48521</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.461925224616185e-16</v>
+        <v>3.506321774978157e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3431159143.48521</v>
+        <v>1721.103086569545</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.506321774978157e-08</v>
+        <v>7.748683578712027e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1721.103086569545</v>
+        <v>6.962246019974228</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>7.748683578712027e-05</v>
+        <v>1.404017762641287</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.962246019974228</v>
+        <v>0.003756009290130274</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.404017762641287</v>
+        <v>5.055852505128077</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.003756009290130274</v>
+        <v>0.9623332215303213</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>5.055852505128077</v>
+        <v>0.9016256848356974</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9623332215303213</v>
+        <v>126</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9016256848356974</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>4.942841608684001</v>
       </c>
     </row>
@@ -2191,72 +2065,66 @@
         <v>5.358675113981085e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.04764421029579954</v>
+        <v>1.664281444779415e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.346751120113733</v>
+        <v>7.282543679567065e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.664281444779415e-06</v>
+        <v>-0.05176248498997087</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.282543679567065e-06</v>
+        <v>0.02839384279636603</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05176248498997087</v>
+        <v>0.003485498911874133</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02839384279636603</v>
+        <v>1.918026280292162</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003485498911874133</v>
+        <v>3.199934706028675</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.951521441644384</v>
+        <v>5.649613643543942</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.199934706028675</v>
+        <v>1.46485720923218e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.649613643543942</v>
+        <v>3467138568.434508</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.46485720923218e-16</v>
+        <v>3.478800644070678e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3467138568.434508</v>
+        <v>1760.912153930525</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.478800644070678e-08</v>
+        <v>9.656851895795377e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1760.912153930525</v>
+        <v>8.649391830552421</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.656851895795377e-05</v>
+        <v>1.266701933980658</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.649391830552421</v>
+        <v>0.007224482016054373</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.266701933980658</v>
+        <v>4.583073462642743</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007224482016054373</v>
+        <v>0.9629850838973946</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.583073462642743</v>
+        <v>0.9686114194200025</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9629850838973946</v>
+        <v>114</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9686114194200025</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>4.188285340650782</v>
       </c>
     </row>
@@ -2271,72 +2139,66 @@
         <v>5.360853308638769e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.07997221236012887</v>
+        <v>1.636941698282091e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.33257315788155</v>
+        <v>7.255056171602406e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.636941698282091e-06</v>
+        <v>-0.05080924831002683</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.255056171602406e-06</v>
+        <v>0.02852767626099563</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05080924831002683</v>
+        <v>0.003395404892761378</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02852767626099563</v>
+        <v>1.921105772337699</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003395404892761378</v>
+        <v>3.112084448910988</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.951509408551868</v>
+        <v>5.527092908410506</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.112084448910988</v>
+        <v>1.643838535802675e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.527092908410506</v>
+        <v>3178548581.985899</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.643838535802675e-16</v>
+        <v>3.812847400068734e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>3178548581.985899</v>
+        <v>1660.798196833511</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.812847400068734e-08</v>
+        <v>0.0001148987872844783</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1660.798196833511</v>
+        <v>9.864769448670661</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001148987872844783</v>
+        <v>1.237372905537365</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.864769448670661</v>
+        <v>0.01118122339024076</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.237372905537365</v>
+        <v>4.255116112239653</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01118122339024076</v>
+        <v>0.9643004961818921</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.255116112239653</v>
+        <v>0.9891131146922454</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9643004961818921</v>
+        <v>106</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9891131146922454</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>3.749433243550863</v>
       </c>
     </row>
@@ -2351,72 +2213,66 @@
         <v>5.360729481129552e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1160546637526396</v>
+        <v>1.642617094276608e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.312921110498935</v>
+        <v>7.228054426791278e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.642617094276608e-06</v>
+        <v>-0.04994116732646922</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.228054426791278e-06</v>
+        <v>0.02894040002294941</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04994116732646922</v>
+        <v>0.003331804298126526</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02894040002294941</v>
+        <v>1.919132680753153</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003331804298126526</v>
+        <v>2.680713424392787</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.945983240902568</v>
+        <v>6.034609958259512</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.680713424392787</v>
+        <v>2.950459800238712e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.034609958259512</v>
+        <v>1806913442.359385</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.950459800238712e-16</v>
+        <v>6.701698727451434e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1806913442.359385</v>
+        <v>963.3062973566884</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.701698727451434e-08</v>
+        <v>9.927953613579843e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>963.3062973566884</v>
+        <v>9.433130900552008</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.927953613579843e-05</v>
+        <v>1.237887435500324</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.433130900552008</v>
+        <v>0.008834286132039409</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.237887435500324</v>
+        <v>4.459716826734814</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008834286132039409</v>
+        <v>0.9636889219911476</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.459716826734814</v>
+        <v>1.066329133011994</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9636889219911476</v>
+        <v>102</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.066329133011994</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>3.855151676843362</v>
       </c>
     </row>
@@ -2431,72 +2287,66 @@
         <v>5.355038729734959e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1554062903843229</v>
+        <v>1.643092516436487e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.288194111497685</v>
+        <v>7.201480626215697e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.643092516436487e-06</v>
+        <v>-0.04930018261878572</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.201480626215697e-06</v>
+        <v>0.02962902719927558</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04930018261878572</v>
+        <v>0.00330864871395037</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02962902719927558</v>
+        <v>1.908394716125156</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00330864871395037</v>
+        <v>2.681894563525117</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.932558378079475</v>
+        <v>5.598181163596674</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.681894563525117</v>
+        <v>3.428421537742588e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.598181163596674</v>
+        <v>1542800757.236976</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.428421537742588e-16</v>
+        <v>7.828612596298974e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1542800757.236976</v>
+        <v>816.0446115689826</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.828612596298974e-08</v>
+        <v>7.290422111552624e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>816.0446115689826</v>
+        <v>7.818603382843518</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>7.290422111552624e-05</v>
+        <v>1.401202662360824</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.818603382843518</v>
+        <v>0.004456675779914787</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.401202662360824</v>
+        <v>4.789715742978281</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.004456675779914787</v>
+        <v>0.9624719512125548</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.789715742978281</v>
+        <v>1.154875466470274</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9624719512125548</v>
+        <v>93</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.154875466470274</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>3.91051073410738</v>
       </c>
     </row>
@@ -2873,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.252775953002263</v>
+        <v>1.261318387759085</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.25883121432711</v>
@@ -2962,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.258833446519554</v>
+        <v>1.271583055780469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.206363180048948</v>
@@ -3051,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.254112226919507</v>
+        <v>1.26412406571859</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.138371707218132</v>
@@ -3140,7 +2990,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.255099167332496</v>
+        <v>1.262240926382236</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.99050543871508</v>
@@ -3229,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.243848002928884</v>
+        <v>1.250016129500534</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.195720909981081</v>
@@ -3318,7 +3168,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.243419437246311</v>
+        <v>1.248870379615534</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.97096022427434</v>
@@ -3407,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.228476406517917</v>
+        <v>1.236337685489788</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.153520717139727</v>
@@ -3496,7 +3346,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.211278108455596</v>
+        <v>1.208526524883978</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.069014154838912</v>
@@ -3585,7 +3435,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.199835859152169</v>
+        <v>1.204207818597343</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.13831448689126</v>
@@ -3674,7 +3524,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.206154465089034</v>
+        <v>1.208610104132684</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.132543341624043</v>
@@ -3763,7 +3613,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.219826960626719</v>
+        <v>1.209185620367187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.009605431921104</v>
@@ -3852,7 +3702,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.209072202446901</v>
+        <v>1.205016522848975</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.122745143297213</v>
@@ -3941,7 +3791,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.199775844498469</v>
+        <v>1.192905223781491</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.131567370709586</v>
@@ -4030,7 +3880,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.22370459309942</v>
+        <v>1.214370967072377</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.111545908127448</v>
@@ -4119,7 +3969,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.223085003764133</v>
+        <v>1.208955930648047</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.172619099974815</v>
@@ -4208,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.236752358248217</v>
+        <v>1.222344476457106</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.113457913978292</v>
@@ -4297,7 +4147,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.232355707179344</v>
+        <v>1.217951990815297</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.091493541966758</v>
@@ -4386,7 +4236,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.253891222779998</v>
+        <v>1.243919651004525</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.112677083916927</v>
@@ -4475,7 +4325,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.261972667927231</v>
+        <v>1.251767227962861</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.100600633996882</v>
@@ -4564,7 +4414,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.28385619803778</v>
+        <v>1.278971272767587</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.115689037676894</v>
@@ -4653,7 +4503,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.311253587264736</v>
+        <v>1.305539816847989</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.969883334237984</v>
@@ -4742,7 +4592,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.326760017578025</v>
+        <v>1.323432055757649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.086422122904384</v>
@@ -4831,7 +4681,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.367785479581605</v>
+        <v>1.360685188441159</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.987774854768003</v>
@@ -4920,7 +4770,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.377758531232944</v>
+        <v>1.362064572357509</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.205247711222067</v>
@@ -5009,7 +4859,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.373425860774477</v>
+        <v>1.352023579671596</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.105267843942335</v>
@@ -5098,7 +4948,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.400871559224048</v>
+        <v>1.3828927674924</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.044245928251452</v>
@@ -5187,7 +5037,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.417446458719971</v>
+        <v>1.403975771914602</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.267550966424222</v>
@@ -5276,7 +5126,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.435729404059976</v>
+        <v>1.420278402176111</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.194090973444719</v>
@@ -5365,7 +5215,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.458039842391565</v>
+        <v>1.444331342961697</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.195346204928093</v>
@@ -5454,7 +5304,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468456719058547</v>
+        <v>1.462719125367582</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.709895038181288</v>
@@ -5543,7 +5393,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.471875269061129</v>
+        <v>1.466816968106218</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.504789284837514</v>
@@ -5632,7 +5482,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508114574554236</v>
+        <v>1.499108759983623</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.42014498031573</v>
@@ -5721,7 +5571,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.510633063103505</v>
+        <v>1.498371540137414</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.823689192970239</v>
@@ -5810,7 +5660,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.477033545912523</v>
+        <v>1.468751710409849</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.318266250203773</v>
@@ -5899,7 +5749,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.474452053970378</v>
+        <v>1.465494026390992</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.200101901339957</v>
@@ -5988,7 +5838,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.467689191808343</v>
+        <v>1.462836429935847</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.353136017532782</v>
@@ -6077,7 +5927,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.461793545926963</v>
+        <v>1.449159990686938</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.38170857593733</v>
@@ -6166,7 +6016,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.467878629019358</v>
+        <v>1.459804033485565</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.339092687566693</v>
@@ -6255,7 +6105,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.448218987557217</v>
+        <v>1.450727298734718</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.292290516750385</v>
@@ -6344,7 +6194,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.465385342419536</v>
+        <v>1.470622121161699</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.199735800130943</v>
@@ -6433,7 +6283,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.44753191309747</v>
+        <v>1.445167785911339</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.297145041558178</v>
@@ -6522,7 +6372,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43613140647595</v>
+        <v>1.432483486030024</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.359759854544409</v>
@@ -6611,7 +6461,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.443648939321135</v>
+        <v>1.434117452992842</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.39553423674213</v>
@@ -6700,7 +6550,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.447054487425563</v>
+        <v>1.442610642027825</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.400092771078221</v>
@@ -6789,7 +6639,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.450063870682649</v>
+        <v>1.444410404115097</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.339678915181395</v>
@@ -6878,7 +6728,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.428779445696668</v>
+        <v>1.424710304263559</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.429473242863961</v>
@@ -6967,7 +6817,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.410730524918168</v>
+        <v>1.408638748744324</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.437726993018858</v>
@@ -7056,7 +6906,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.398572750056635</v>
+        <v>1.397815311362048</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.30891286301789</v>
@@ -7145,7 +6995,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.415781261129198</v>
+        <v>1.412651957859555</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.573365761132223</v>
@@ -7234,7 +7084,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.405216632958636</v>
+        <v>1.401389272009751</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.431611785307233</v>
@@ -7323,7 +7173,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.404329733834717</v>
+        <v>1.394868113429042</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.519489838820667</v>
@@ -7412,7 +7262,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.408997198484489</v>
+        <v>1.403619494526954</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.373565744550781</v>
@@ -7501,7 +7351,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.415133825745569</v>
+        <v>1.408428554700494</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.590250362939776</v>
@@ -7590,7 +7440,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.424567929932649</v>
+        <v>1.413594224489396</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.623778952500453</v>
@@ -7679,7 +7529,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.429375445329971</v>
+        <v>1.42158071644543</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.738211449245587</v>
@@ -7768,7 +7618,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.437444162555594</v>
+        <v>1.433152640711366</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.576404376234032</v>
@@ -7857,7 +7707,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.43264201532872</v>
+        <v>1.431586186615934</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.780654843804372</v>
@@ -7946,7 +7796,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.435674142527405</v>
+        <v>1.438844202128008</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.789003764696624</v>
@@ -8035,7 +7885,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.433641902803057</v>
+        <v>1.432875130937263</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.674063839310887</v>
@@ -8124,7 +7974,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.436444927069697</v>
+        <v>1.435738583543796</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.38311850811079</v>
@@ -8213,7 +8063,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458098612358509</v>
+        <v>1.459177662589143</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.710357746236304</v>
@@ -8302,7 +8152,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.473376685654125</v>
+        <v>1.47657627783354</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.725279907314119</v>
@@ -8391,7 +8241,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.479025994796269</v>
+        <v>1.480845182728919</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.710514700820309</v>
@@ -8480,7 +8330,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.484252847253348</v>
+        <v>1.484617057631543</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.618911925137892</v>
@@ -8569,7 +8419,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.489128380415443</v>
+        <v>1.486024255101671</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.691650206908986</v>
@@ -8658,7 +8508,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.489871709665666</v>
+        <v>1.49362593077386</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.961007322328506</v>
@@ -8747,7 +8597,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.482876022747399</v>
+        <v>1.483527344818208</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.836742375722094</v>
@@ -8836,7 +8686,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.467883374925384</v>
+        <v>1.469707269962294</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.752437486792493</v>
@@ -9122,7 +8972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475722620191853</v>
+        <v>1.464487934591923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.225250788989487</v>
@@ -9211,7 +9061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486851753669326</v>
+        <v>1.479318430657009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.276191533034311</v>
@@ -9300,7 +9150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503219427062047</v>
+        <v>1.492726620578711</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.198186354296387</v>
@@ -9389,7 +9239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.508676063408472</v>
+        <v>1.495944192076828</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.208139435060976</v>
@@ -9478,7 +9328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51375345601848</v>
+        <v>1.499381751422101</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.107364889146413</v>
@@ -9567,7 +9417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.530737665054056</v>
+        <v>1.515184006083688</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.182637230519067</v>
@@ -9656,7 +9506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532916395962545</v>
+        <v>1.525411510516269</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.18464796063955</v>
@@ -9745,7 +9595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.533725593884699</v>
+        <v>1.522903515860369</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.214023040488958</v>
@@ -9834,7 +9684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.53076574385357</v>
+        <v>1.52426397015714</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.178133830602488</v>
@@ -9923,7 +9773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.531786952300688</v>
+        <v>1.52390157151663</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.217049188168792</v>
@@ -10012,7 +9862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534446052351345</v>
+        <v>1.525645458161699</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.215155188098786</v>
@@ -10101,7 +9951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.535434156957428</v>
+        <v>1.529495326112067</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.228011050268884</v>
@@ -10190,7 +10040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544425678583895</v>
+        <v>1.537705913454189</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.168677930031637</v>
@@ -10279,7 +10129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.600544462960902</v>
+        <v>1.581071855340975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.496686844493189</v>
@@ -10368,7 +10218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584050520405683</v>
+        <v>1.575511417640203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.959649688950361</v>
@@ -10457,7 +10307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58544570582</v>
+        <v>1.584252673825039</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.932212690241428</v>
@@ -10546,7 +10396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583249309181367</v>
+        <v>1.579762669098321</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.008719424913265</v>
@@ -10635,7 +10485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58617805639612</v>
+        <v>1.591951329644952</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.906240937277414</v>
@@ -10724,7 +10574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.598615396665488</v>
+        <v>1.602738563830324</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.063551383712664</v>
@@ -10813,7 +10663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593066735702949</v>
+        <v>1.597274336495906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.912668473981543</v>
@@ -10902,7 +10752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601805587107971</v>
+        <v>1.608052371335783</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.692472640687253</v>
@@ -10991,7 +10841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616942593347215</v>
+        <v>1.620918046856986</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.852086930175203</v>
@@ -11080,7 +10930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62089285210026</v>
+        <v>1.625787620381584</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.970887615966618</v>
@@ -11169,7 +11019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620014965661018</v>
+        <v>1.623998101543311</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.953391725648554</v>
@@ -11258,7 +11108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623026284741786</v>
+        <v>1.62876083851248</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.782358004561009</v>
@@ -11347,7 +11197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.629145955029528</v>
+        <v>1.633881126857218</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.031602557234154</v>
@@ -11436,7 +11286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632018094738559</v>
+        <v>1.635558542014414</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.80105430256103</v>
@@ -11525,7 +11375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.627979249553652</v>
+        <v>1.630768176138395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.978979198401443</v>
@@ -11614,7 +11464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.629596995519998</v>
+        <v>1.633333023269993</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.536970409868924</v>
@@ -11703,7 +11553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635043129748161</v>
+        <v>1.627141796563373</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.558970384521899</v>
@@ -11792,7 +11642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640803098616377</v>
+        <v>1.627932866034942</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.828605407282137</v>
@@ -11881,7 +11731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645377546467229</v>
+        <v>1.628279141415033</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.047223326999697</v>
@@ -11970,7 +11820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630286536407418</v>
+        <v>1.60967251282508</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.948394591335686</v>
@@ -12059,7 +11909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.611680577037745</v>
+        <v>1.592419032842856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.088163720136418</v>
@@ -12148,7 +11998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61222501349581</v>
+        <v>1.585514585191907</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.681133689625806</v>
@@ -12237,7 +12087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603560962565534</v>
+        <v>1.576474582412498</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.888576883677188</v>
@@ -12326,7 +12176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583566838927333</v>
+        <v>1.548360620665443</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.653712346480221</v>
@@ -12415,7 +12265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585044446644001</v>
+        <v>1.543425739335267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.982550350129724</v>
@@ -12504,7 +12354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560190139834021</v>
+        <v>1.522682111235369</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.082384011574782</v>
@@ -12593,7 +12443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.563459069423328</v>
+        <v>1.528729870567239</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.141940639248746</v>
@@ -12682,7 +12532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553634087921438</v>
+        <v>1.516105071750439</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.225607753247587</v>
@@ -12771,7 +12621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.52382075836217</v>
+        <v>1.484044566572055</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.728137396874725</v>
@@ -12860,7 +12710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.514543282867328</v>
+        <v>1.477445377245529</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.779674316383598</v>
@@ -12949,7 +12799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.508440483560822</v>
+        <v>1.468962131059399</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.839064165962652</v>
@@ -13038,7 +12888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.498475206326952</v>
+        <v>1.458937186405113</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.865109715478869</v>
@@ -13127,7 +12977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.494099111085354</v>
+        <v>1.450008768169724</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.922591691851241</v>
@@ -13216,7 +13066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489934401573586</v>
+        <v>1.446341092612954</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.960702870606026</v>
@@ -13305,7 +13155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.490871851257487</v>
+        <v>1.444801203890831</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.807938543469639</v>
@@ -13394,7 +13244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.472375295551432</v>
+        <v>1.430958101366116</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.80094851536085</v>
@@ -13483,7 +13333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.473650402579364</v>
+        <v>1.435697563573866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.577371512536788</v>
@@ -13572,7 +13422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.475731471934947</v>
+        <v>1.438106586543784</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.809302240154715</v>
@@ -13661,7 +13511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.481022035800294</v>
+        <v>1.450696302061276</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.823668487434639</v>
@@ -13750,7 +13600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.487262457770669</v>
+        <v>1.460255967490836</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.671094980911864</v>
@@ -13839,7 +13689,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.499279929176233</v>
+        <v>1.475626258440091</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.725584682742716</v>
@@ -13928,7 +13778,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.491720261042067</v>
+        <v>1.467866636673932</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.478691932157748</v>
@@ -14017,7 +13867,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.494749271250356</v>
+        <v>1.47640560994142</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.395679543898782</v>
@@ -14106,7 +13956,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.520859083217817</v>
+        <v>1.50521713379586</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.531639988540277</v>
@@ -14195,7 +14045,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.522666293049039</v>
+        <v>1.505552222422273</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.649815807380741</v>
@@ -14284,7 +14134,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53660801303437</v>
+        <v>1.516004815021282</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.536226522189589</v>
@@ -14373,7 +14223,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.54861334941376</v>
+        <v>1.529313634980231</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.58503560725715</v>
@@ -14462,7 +14312,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.55015436309205</v>
+        <v>1.538262388326584</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.470435463484123</v>
@@ -14551,7 +14401,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.552066627821199</v>
+        <v>1.543382545340821</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.522594268428523</v>
@@ -14640,7 +14490,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559031297888503</v>
+        <v>1.546761142396813</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.342611498359229</v>
@@ -14729,7 +14579,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.593994577030431</v>
+        <v>1.574125134572612</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.682757500159714</v>
@@ -14818,7 +14668,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.609685902725127</v>
+        <v>1.589056664533125</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.481085346849087</v>
@@ -14907,7 +14757,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.619560991130469</v>
+        <v>1.596494601005955</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.142877977048549</v>
@@ -14996,7 +14846,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.61653320506277</v>
+        <v>1.594020379237583</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.253980389069943</v>
@@ -15085,7 +14935,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.600018538462583</v>
+        <v>1.578568063985188</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.208900436927358</v>
@@ -15371,7 +15221,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.554259400999912</v>
+        <v>1.534948785946787</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.972042420279091</v>
@@ -15460,7 +15310,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552126547399688</v>
+        <v>1.535579452511176</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.778861420793469</v>
@@ -15549,7 +15399,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.540862482833903</v>
+        <v>1.527120649791764</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.018231795640916</v>
@@ -15638,7 +15488,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.558459509363932</v>
+        <v>1.544809359817352</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.983380011947208</v>
@@ -15727,7 +15577,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565017908499268</v>
+        <v>1.54949404053522</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.158195855878436</v>
@@ -15816,7 +15666,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568769304883374</v>
+        <v>1.550326604209397</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.060616359818383</v>
@@ -15905,7 +15755,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.571663637933075</v>
+        <v>1.549908468866567</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.186720205162908</v>
@@ -15994,7 +15844,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.571866388597136</v>
+        <v>1.545473173490821</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.978383262400265</v>
@@ -16083,7 +15933,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.565081831177072</v>
+        <v>1.538347824157616</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.026437364683385</v>
@@ -16172,7 +16022,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.571385042385262</v>
+        <v>1.54429875245691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.212187416649603</v>
@@ -16261,7 +16111,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584089882710215</v>
+        <v>1.557968575028443</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.181884232520892</v>
@@ -16350,7 +16200,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599265097569511</v>
+        <v>1.5715124202921</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.034171017201966</v>
@@ -16439,7 +16289,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605343265773932</v>
+        <v>1.577243115722375</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.960662416395522</v>
@@ -16528,7 +16378,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598703339157465</v>
+        <v>1.568948193047546</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.966389922449182</v>
@@ -16617,7 +16467,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615448346454651</v>
+        <v>1.582193441326216</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.185323417527799</v>
@@ -16706,7 +16556,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.622222184922751</v>
+        <v>1.597290553768397</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.228230176607248</v>
@@ -16795,7 +16645,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.626004002527069</v>
+        <v>1.59342759020624</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.225709228953576</v>
@@ -16884,7 +16734,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.644457380064817</v>
+        <v>1.609468421232663</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.338805554596025</v>
@@ -16973,7 +16823,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.640301496800991</v>
+        <v>1.606711415943699</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.385167273113749</v>
@@ -17062,7 +16912,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639613369179897</v>
+        <v>1.611880975724334</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.538472009577562</v>
@@ -17151,7 +17001,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642809403634763</v>
+        <v>1.618731716286126</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.512874961017558</v>
@@ -17240,7 +17090,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.653921866299406</v>
+        <v>1.633905483251409</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.341543737293441</v>
@@ -17329,7 +17179,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.657102215739606</v>
+        <v>1.639782410807022</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.353825557808181</v>
@@ -17418,7 +17268,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.661222921075543</v>
+        <v>1.637818267560471</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.532738788041993</v>
@@ -17507,7 +17357,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.652430007518576</v>
+        <v>1.630729321220837</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.191334030214131</v>
@@ -17596,7 +17446,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657413851755201</v>
+        <v>1.632010355265333</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.687102800240277</v>
@@ -17685,7 +17535,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.651325367840023</v>
+        <v>1.630176017337824</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.299637662060223</v>
@@ -17774,7 +17624,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65554171664476</v>
+        <v>1.630724261449348</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.460213756265111</v>
@@ -17863,7 +17713,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671085455063514</v>
+        <v>1.646789792682837</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.601585522130138</v>
@@ -17952,7 +17802,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677986186879965</v>
+        <v>1.645235994729377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.286445609136667</v>
@@ -18041,7 +17891,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.677513688801589</v>
+        <v>1.643325081589184</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.814010808153869</v>
@@ -18130,7 +17980,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.689118661209926</v>
+        <v>1.65343300950492</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.772739765860011</v>
@@ -18219,7 +18069,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.67791813885288</v>
+        <v>1.639306560767286</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.461575674291439</v>
@@ -18308,7 +18158,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.68064804869506</v>
+        <v>1.636991635080084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.526560930081672</v>
@@ -18397,7 +18247,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686179608939041</v>
+        <v>1.636038781940209</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.498923604925859</v>
@@ -18486,7 +18336,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.68457197761792</v>
+        <v>1.633926768695739</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.090453336688034</v>
@@ -18575,7 +18425,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.666545289363603</v>
+        <v>1.609482369602729</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.997091459653478</v>
@@ -18664,7 +18514,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659560807665928</v>
+        <v>1.595800871408471</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.462138646895994</v>
@@ -18753,7 +18603,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.655382837936126</v>
+        <v>1.602853837513232</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.220652672448944</v>
@@ -18842,7 +18692,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65712839591288</v>
+        <v>1.605089997138801</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.655413407642567</v>
@@ -18931,7 +18781,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.609489076005189</v>
+        <v>1.57193249158752</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.5174722844405</v>
@@ -19020,7 +18870,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60221244928088</v>
+        <v>1.564388988991381</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.32533763998812</v>
@@ -19109,7 +18959,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594316829272548</v>
+        <v>1.559503551825574</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.482446618637509</v>
@@ -19198,7 +19048,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588490695301512</v>
+        <v>1.553081858593574</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.494484617230838</v>
@@ -19287,7 +19137,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.574123169222794</v>
+        <v>1.544031024975854</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.491312768653124</v>
@@ -19376,7 +19226,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.567882291405629</v>
+        <v>1.536810682447798</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.571996671032784</v>
@@ -19465,7 +19315,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571126037378354</v>
+        <v>1.540187736771839</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.532267686147134</v>
@@ -19554,7 +19404,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.578449194286017</v>
+        <v>1.545866172045532</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.497238557576678</v>
@@ -19643,7 +19493,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571114633612469</v>
+        <v>1.54143817900635</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.454488835393494</v>
@@ -19732,7 +19582,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569532589284878</v>
+        <v>1.536626731679742</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.59261284584724</v>
@@ -19821,7 +19671,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.571070408423876</v>
+        <v>1.533758085309817</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.450836272019385</v>
@@ -19910,7 +19760,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.544213195708612</v>
+        <v>1.521662433796005</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.478171275749438</v>
@@ -19999,7 +19849,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.553536464176086</v>
+        <v>1.534007196500276</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.505980830637497</v>
@@ -20088,7 +19938,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.554409927076182</v>
+        <v>1.531514963922149</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.480247610626013</v>
@@ -20177,7 +20027,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.552261227906013</v>
+        <v>1.527635550617587</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.234761789408952</v>
@@ -20266,7 +20116,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.58136765067445</v>
+        <v>1.556023784051813</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.527006457771427</v>
@@ -20355,7 +20205,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590254622695341</v>
+        <v>1.561192505219904</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.644966341848733</v>
@@ -20444,7 +20294,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602015501698555</v>
+        <v>1.566932785488915</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.721390086707315</v>
@@ -20533,7 +20383,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.612599505650792</v>
+        <v>1.577553459696326</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.716940843004041</v>
@@ -20622,7 +20472,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.623639424227954</v>
+        <v>1.589403861672661</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.664958596546083</v>
@@ -20711,7 +20561,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.634304428115193</v>
+        <v>1.604396864931647</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.714297582671225</v>
@@ -20800,7 +20650,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.623054593944849</v>
+        <v>1.595933475456198</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.634675346337096</v>
@@ -20889,7 +20739,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.610162617881024</v>
+        <v>1.584145969222789</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.697105321922442</v>
@@ -20978,7 +20828,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.623721378199639</v>
+        <v>1.597687367714446</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.608029413336975</v>
@@ -21067,7 +20917,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.617003725051271</v>
+        <v>1.588776948522667</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.589184555895859</v>
@@ -21156,7 +21006,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.626614177371136</v>
+        <v>1.597619772078397</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.573268800043224</v>
@@ -21245,7 +21095,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.653472111185481</v>
+        <v>1.610208650176015</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.181917733480513</v>
@@ -21334,7 +21184,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.633706609809226</v>
+        <v>1.595244404585593</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.49559918535415</v>
@@ -21620,7 +21470,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.64277823337691</v>
+        <v>1.631596837502305</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.789732520616089</v>
@@ -21709,7 +21559,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.657157761170591</v>
+        <v>1.640730291802984</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.631876964123047</v>
@@ -21798,7 +21648,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658732293370521</v>
+        <v>1.642364814063984</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.589147649029693</v>
@@ -21887,7 +21737,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669969500885267</v>
+        <v>1.650289650216329</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.626208559403524</v>
@@ -21976,7 +21826,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675182226664736</v>
+        <v>1.65591836346632</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.78083862520916</v>
@@ -22065,7 +21915,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.689308312412894</v>
+        <v>1.670781117139543</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.761175535711213</v>
@@ -22154,7 +22004,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700191118603956</v>
+        <v>1.685785859654199</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.764778031828961</v>
@@ -22243,7 +22093,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685099468374308</v>
+        <v>1.668978489180639</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.67615391475701</v>
@@ -22332,7 +22182,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.676330670429771</v>
+        <v>1.662770995550237</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.713504665220973</v>
@@ -22421,7 +22271,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.665207763121461</v>
+        <v>1.649852109189414</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.599428615194681</v>
@@ -22510,7 +22360,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.667995308052765</v>
+        <v>1.649722211434369</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.733221446503048</v>
@@ -22599,7 +22449,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66129517863866</v>
+        <v>1.652115170316449</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.68638317873089</v>
@@ -22688,7 +22538,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656926159761598</v>
+        <v>1.643433978413977</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.677308587279909</v>
@@ -22777,7 +22627,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.682738611064178</v>
+        <v>1.670034999961188</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.086069712715967</v>
@@ -22866,7 +22716,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66694565886419</v>
+        <v>1.660633531063414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.055102817036214</v>
@@ -22955,7 +22805,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.673621280376685</v>
+        <v>1.667508830798848</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.401642225434608</v>
@@ -23044,7 +22894,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.672565250180729</v>
+        <v>1.666005017831514</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.348547051467458</v>
@@ -23133,7 +22983,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.692439025210301</v>
+        <v>1.685759432243443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.535627260180714</v>
@@ -23222,7 +23072,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.694081587528121</v>
+        <v>1.691455475885024</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.172682119393795</v>
@@ -23311,7 +23161,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.69443650642208</v>
+        <v>1.693100425918805</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.278596152039953</v>
@@ -23400,7 +23250,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.697201047913891</v>
+        <v>1.695852600631107</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.332849168003025</v>
@@ -23489,7 +23339,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.703186137893399</v>
+        <v>1.704587241897414</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.057161900549946</v>
@@ -23578,7 +23428,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.714171596140903</v>
+        <v>1.714649638946965</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.615657317839982</v>
@@ -23667,7 +23517,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.71995253086668</v>
+        <v>1.717837469949599</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.454550973921809</v>
@@ -23756,7 +23606,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71398961910829</v>
+        <v>1.715882960628237</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.590661273415124</v>
@@ -23845,7 +23695,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.728865310758084</v>
+        <v>1.732828301607408</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.647757287361956</v>
@@ -23934,7 +23784,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.738681764359481</v>
+        <v>1.740398076392832</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.461954460741978</v>
@@ -24023,7 +23873,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744217611519696</v>
+        <v>1.746098169384955</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.222353519188088</v>
@@ -24112,7 +23962,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.758185811563818</v>
+        <v>1.765108677834955</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.919555580984975</v>
@@ -24201,7 +24051,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.765858443927828</v>
+        <v>1.770576625514806</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.406014712039479</v>
@@ -24290,7 +24140,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.764980465264548</v>
+        <v>1.76419493451392</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.426145517638761</v>
@@ -24379,7 +24229,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779112640247203</v>
+        <v>1.777215182124416</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.465423650780678</v>
@@ -24468,7 +24318,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.763521144404983</v>
+        <v>1.765373069471076</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.822965325048723</v>
@@ -24557,7 +24407,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.750035729363445</v>
+        <v>1.74723123601214</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.414834070111482</v>
@@ -24646,7 +24496,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.751908264619154</v>
+        <v>1.743135812557923</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.200572504322598</v>
@@ -24735,7 +24585,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.750345572835472</v>
+        <v>1.740914807734231</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.922570560271346</v>
@@ -24824,7 +24674,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.740038784452596</v>
+        <v>1.723770529232582</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.379894903041676</v>
@@ -24913,7 +24763,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731408805043622</v>
+        <v>1.707625379992118</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.477622044103799</v>
@@ -25002,7 +24852,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.70715481391046</v>
+        <v>1.690055317401674</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.457990881248186</v>
@@ -25091,7 +24941,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.698844640853227</v>
+        <v>1.684252843122835</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.200611890889956</v>
@@ -25180,7 +25030,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.678991240931082</v>
+        <v>1.657367768453359</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.172316478291977</v>
@@ -25269,7 +25119,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.664094131853997</v>
+        <v>1.636880897436567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.549111119337527</v>
@@ -25358,7 +25208,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647789119102625</v>
+        <v>1.623567472749946</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.450798198994783</v>
@@ -25447,7 +25297,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630595388139907</v>
+        <v>1.60391706038198</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.518905165818157</v>
@@ -25536,7 +25386,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614318783584258</v>
+        <v>1.592206679285254</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.450572312864764</v>
@@ -25625,7 +25475,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.614467722945877</v>
+        <v>1.595311874356959</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.494360660232068</v>
@@ -25714,7 +25564,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609226737589176</v>
+        <v>1.588789999430741</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.595132882580923</v>
@@ -25803,7 +25653,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610879281219204</v>
+        <v>1.587523554695922</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.268275750031234</v>
@@ -25892,7 +25742,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601355382382558</v>
+        <v>1.578801880647179</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.957701170473067</v>
@@ -25981,7 +25831,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596974828736246</v>
+        <v>1.573442050143028</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.659676813361758</v>
@@ -26070,7 +25920,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592382139954179</v>
+        <v>1.57225506850239</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.024122920265269</v>
@@ -26159,7 +26009,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593841781923305</v>
+        <v>1.575631582970023</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.943925693566873</v>
@@ -26248,7 +26098,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.605159534074649</v>
+        <v>1.59060607865626</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.896082648220089</v>
@@ -26337,7 +26187,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.614422017027234</v>
+        <v>1.600661622550557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.964834873651703</v>
@@ -26426,7 +26276,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.636307567123966</v>
+        <v>1.622084137269692</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.861289438811757</v>
@@ -26515,7 +26365,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.644253962360832</v>
+        <v>1.636378190182088</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.970007416268855</v>
@@ -26604,7 +26454,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.658315677940536</v>
+        <v>1.652127991984202</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.716630935112567</v>
@@ -26693,7 +26543,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.670802151600636</v>
+        <v>1.666323232099915</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.608309802644108</v>
@@ -26782,7 +26632,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.695234073277021</v>
+        <v>1.684376284766811</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.862496414162902</v>
@@ -26871,7 +26721,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.712616788964601</v>
+        <v>1.697808903726276</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.801458809985111</v>
@@ -26960,7 +26810,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.719062058793586</v>
+        <v>1.703518549045106</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.855881584204375</v>
@@ -27049,7 +26899,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.717617783096034</v>
+        <v>1.705170924439975</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.763615120793663</v>
@@ -27138,7 +26988,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.713231478848122</v>
+        <v>1.701301646711366</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.747890424449207</v>
@@ -27227,7 +27077,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.737111123481769</v>
+        <v>1.718335856938734</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.94327652378663</v>
@@ -27316,7 +27166,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.749024023406001</v>
+        <v>1.731031474137723</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.027573217783618</v>
@@ -27405,7 +27255,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.756842676008687</v>
+        <v>1.736523748846272</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.567915606564346</v>
@@ -27494,7 +27344,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.748546192728292</v>
+        <v>1.731885238928608</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.275269011714966</v>
@@ -27583,7 +27433,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.738538975636307</v>
+        <v>1.720690021568893</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.180067462488077</v>
@@ -27869,7 +27719,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499729237566907</v>
+        <v>1.490775691797956</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.559152918236382</v>
@@ -27958,7 +27808,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509809212902686</v>
+        <v>1.495318977366267</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.568223643692173</v>
@@ -28047,7 +27897,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515887840532888</v>
+        <v>1.494002353684918</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.41625981717857</v>
@@ -28136,7 +27986,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531470519846595</v>
+        <v>1.506372107493346</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.407402615971951</v>
@@ -28225,7 +28075,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.527363622246877</v>
+        <v>1.50168043270357</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.555517418354115</v>
@@ -28314,7 +28164,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.538276624403251</v>
+        <v>1.510881385399985</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.496873883871743</v>
@@ -28403,7 +28253,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.543481089737764</v>
+        <v>1.520459495660909</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.42426339734048</v>
@@ -28492,7 +28342,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.544496886892762</v>
+        <v>1.521976423621116</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.50217612384092</v>
@@ -28581,7 +28431,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550959838709828</v>
+        <v>1.529144595306702</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.497684740770326</v>
@@ -28670,7 +28520,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555651404088063</v>
+        <v>1.533972553283574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.496185049473343</v>
@@ -28759,7 +28609,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550591407598361</v>
+        <v>1.523478360864954</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.41302498265157</v>
@@ -28848,7 +28698,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.5458449585349</v>
+        <v>1.521420834231544</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.463839651938111</v>
@@ -28937,7 +28787,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544957098249733</v>
+        <v>1.520308001155512</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.456359409468994</v>
@@ -29026,7 +28876,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588432268775036</v>
+        <v>1.5604370700487</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.829821680871574</v>
@@ -29115,7 +28965,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592546408723591</v>
+        <v>1.571565517221588</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.961944833379599</v>
@@ -29204,7 +29054,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595093136726615</v>
+        <v>1.57076501288406</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.187779507572679</v>
@@ -29293,7 +29143,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.588389679056369</v>
+        <v>1.569063263753809</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.97902859683233</v>
@@ -29382,7 +29232,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587353481581457</v>
+        <v>1.568091240749585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.178001016506076</v>
@@ -29471,7 +29321,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.535117180652089</v>
+        <v>1.528449041064841</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.081655748493458</v>
@@ -29560,7 +29410,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.547677898363448</v>
+        <v>1.541345237003558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.155197260839664</v>
@@ -29649,7 +29499,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53261297634955</v>
+        <v>1.530199484582771</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.168105876465353</v>
@@ -29738,7 +29588,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534449600527428</v>
+        <v>1.532221640279121</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.146033638327074</v>
@@ -29827,7 +29677,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533712671456078</v>
+        <v>1.533378709345412</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.135716364073192</v>
@@ -29916,7 +29766,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535722540224829</v>
+        <v>1.54133954118647</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.115147378077822</v>
@@ -30005,7 +29855,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.537003138875201</v>
+        <v>1.540882052820552</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.160068484799936</v>
@@ -30094,7 +29944,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.543362811303582</v>
+        <v>1.550062906303034</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.193703432275724</v>
@@ -30183,7 +30033,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.542052963003466</v>
+        <v>1.546979699757066</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.156332049078086</v>
@@ -30272,7 +30122,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.545438605371099</v>
+        <v>1.547802267834567</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.14272809669975</v>
@@ -30361,7 +30211,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.541961184845893</v>
+        <v>1.543540563989624</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.255968652341539</v>
@@ -30450,7 +30300,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536330246522795</v>
+        <v>1.529481149170193</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.140503933033262</v>
@@ -30539,7 +30389,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.538919422658063</v>
+        <v>1.530111468106855</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.071392061577853</v>
@@ -30628,7 +30478,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.539720152257355</v>
+        <v>1.528874193927862</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.056964597570767</v>
@@ -30717,7 +30567,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565107149892462</v>
+        <v>1.546743725092936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.916975104171494</v>
@@ -30806,7 +30656,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.569713620838381</v>
+        <v>1.549740310544226</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.656099078060902</v>
@@ -30895,7 +30745,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.56386483090341</v>
+        <v>1.535269648809149</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.608887611998093</v>
@@ -30984,7 +30834,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580201579215582</v>
+        <v>1.551265158428586</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.940790994015064</v>
@@ -31073,7 +30923,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577184890548729</v>
+        <v>1.543379720675554</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.850367151735541</v>
@@ -31162,7 +31012,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56783528406328</v>
+        <v>1.52670065057538</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.08363857760174</v>
@@ -31251,7 +31101,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532850252756279</v>
+        <v>1.488978109431395</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.901484553812367</v>
@@ -31340,7 +31190,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.514644675187727</v>
+        <v>1.477013127992854</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.713209260695032</v>
@@ -31429,7 +31279,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.501682193776095</v>
+        <v>1.4597133930333</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.024160235621951</v>
@@ -31518,7 +31368,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479427955314277</v>
+        <v>1.439122620593776</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.619916428552565</v>
@@ -31607,7 +31457,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460713786486765</v>
+        <v>1.422637931423266</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.646139754089549</v>
@@ -31696,7 +31546,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.451766558564229</v>
+        <v>1.410689959023772</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.765038153894128</v>
@@ -31785,7 +31635,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.43600756057761</v>
+        <v>1.39732886775756</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.866374853962826</v>
@@ -31874,7 +31724,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.436506344662969</v>
+        <v>1.39479363508331</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.712961899855734</v>
@@ -31963,7 +31813,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435813245364532</v>
+        <v>1.394190174643255</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.854556969082932</v>
@@ -32052,7 +31902,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.44553437688636</v>
+        <v>1.401634076221424</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.732241676530299</v>
@@ -32141,7 +31991,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.438808474347058</v>
+        <v>1.395077061463846</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.64240513626537</v>
@@ -32230,7 +32080,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.43209864248835</v>
+        <v>1.39204412111764</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.486602487516551</v>
@@ -32319,7 +32169,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.431937996386802</v>
+        <v>1.392620691843883</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.65508377405684</v>
@@ -32408,7 +32258,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.426896519317921</v>
+        <v>1.391140718491717</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.556287980730104</v>
@@ -32497,7 +32347,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.439829757305645</v>
+        <v>1.406100393772428</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.427698045739563</v>
@@ -32586,7 +32436,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.460483832010818</v>
+        <v>1.432291482085615</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.529180243770811</v>
@@ -32675,7 +32525,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.472455302841438</v>
+        <v>1.445189930595662</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.543193382632558</v>
@@ -32764,7 +32614,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.483498639120691</v>
+        <v>1.455163927010773</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.491331869530602</v>
@@ -32853,7 +32703,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.516485063917695</v>
+        <v>1.492824119265689</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.329694337172028</v>
@@ -32942,7 +32792,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.525209993082621</v>
+        <v>1.504043303416296</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.499579685934125</v>
@@ -33031,7 +32881,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.541537143906007</v>
+        <v>1.519411406983416</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.605456989920037</v>
@@ -33120,7 +32970,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.566607064077179</v>
+        <v>1.545031248509443</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.473986937184758</v>
@@ -33209,7 +33059,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56950174019548</v>
+        <v>1.551397633682082</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.622063784619195</v>
@@ -33298,7 +33148,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.575767822955065</v>
+        <v>1.557524350869782</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.514673605396129</v>
@@ -33387,7 +33237,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.572911842569474</v>
+        <v>1.553199904671569</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.383743127615824</v>
@@ -33476,7 +33326,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.615792783323898</v>
+        <v>1.594053518929141</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.802393589268616</v>
@@ -33565,7 +33415,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.631480566028457</v>
+        <v>1.606155187057022</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.466389163147347</v>
@@ -33654,7 +33504,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.638465777168623</v>
+        <v>1.612324055139779</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.963952617586508</v>
@@ -33743,7 +33593,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.637086292957408</v>
+        <v>1.611335480441847</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.446023529408494</v>
@@ -33832,7 +33682,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.618413105933326</v>
+        <v>1.598005093428984</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.122249434967118</v>
@@ -34118,7 +33968,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516564892985226</v>
+        <v>1.533952053256284</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.955547131475746</v>
@@ -34207,7 +34057,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.526431041211419</v>
+        <v>1.540244959971506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.562513331619225</v>
@@ -34296,7 +34146,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554849630802988</v>
+        <v>1.570025421691386</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.948362747044427</v>
@@ -34385,7 +34235,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.554349975385814</v>
+        <v>1.5733025037069</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.9397202388462</v>
@@ -34474,7 +34324,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575882614996448</v>
+        <v>1.596074418663918</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.093586042262816</v>
@@ -34563,7 +34413,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.593270694734281</v>
+        <v>1.614189743991046</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.785783146224468</v>
@@ -34652,7 +34502,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60313302712814</v>
+        <v>1.62314066632753</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.054523083968449</v>
@@ -34741,7 +34591,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595362538039188</v>
+        <v>1.61288451516267</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.880634821605049</v>
@@ -34830,7 +34680,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.607951732837035</v>
+        <v>1.62727128152313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.893523594948746</v>
@@ -34919,7 +34769,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610965059067462</v>
+        <v>1.631582845070803</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.922947452312802</v>
@@ -35008,7 +34858,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625025855807233</v>
+        <v>1.647748397606652</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.886082483443342</v>
@@ -35097,7 +34947,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608653916190628</v>
+        <v>1.636535706530994</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.819598699185925</v>
@@ -35186,7 +35036,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585422241281686</v>
+        <v>1.61115824465607</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.657051827277134</v>
@@ -35275,7 +35125,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.582430032277751</v>
+        <v>1.608787744850481</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.488207941883633</v>
@@ -35364,7 +35214,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600756511562515</v>
+        <v>1.633527761393302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.654099516277177</v>
@@ -35453,7 +35303,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.603623951623017</v>
+        <v>1.640826777704526</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.592504238243636</v>
@@ -35542,7 +35392,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607114674533517</v>
+        <v>1.643851697662326</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.845188578362574</v>
@@ -35631,7 +35481,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606714478203557</v>
+        <v>1.640326540259207</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.88417619288433</v>
@@ -35720,7 +35570,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602184098966756</v>
+        <v>1.648847644654718</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.759274211654967</v>
@@ -35809,7 +35659,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605169133396099</v>
+        <v>1.65483015956721</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.67611420009387</v>
@@ -35898,7 +35748,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593438050593645</v>
+        <v>1.644353362961817</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.901703963825749</v>
@@ -35987,7 +35837,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60583670518473</v>
+        <v>1.659402745744705</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.814753968569645</v>
@@ -36076,7 +35926,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594753468504344</v>
+        <v>1.643720056754149</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.73327963780261</v>
@@ -36165,7 +36015,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587077632689342</v>
+        <v>1.642519698146797</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.804399052873879</v>
@@ -36254,7 +36104,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.56218615777509</v>
+        <v>1.617112075371271</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.773674724855682</v>
@@ -36343,7 +36193,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.56595443287197</v>
+        <v>1.622544281697809</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.98657518628882</v>
@@ -36432,7 +36282,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585454571768916</v>
+        <v>1.633829297505746</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.954950832467084</v>
@@ -36521,7 +36371,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.622015956750011</v>
+        <v>1.675798544013547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.532090875173592</v>
@@ -36610,7 +36460,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652575749373709</v>
+        <v>1.709677228776369</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.956236155345331</v>
@@ -36699,7 +36549,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.633242666474933</v>
+        <v>1.688013163040995</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.643700613899341</v>
@@ -36788,7 +36638,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619337025600151</v>
+        <v>1.673279403641548</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.842950022151024</v>
@@ -36877,7 +36727,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.635844755348284</v>
+        <v>1.691270914710828</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.959346962118886</v>
@@ -36966,7 +36816,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.661373909746185</v>
+        <v>1.712408920887708</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.612771661588928</v>
@@ -37055,7 +36905,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644100388547884</v>
+        <v>1.689905009502516</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.872008524113385</v>
@@ -37144,7 +36994,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633475605401726</v>
+        <v>1.674203548708827</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.062020299045713</v>
@@ -37233,7 +37083,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647458890562152</v>
+        <v>1.688435630441972</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.006352766458016</v>
@@ -37322,7 +37172,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.648360616797721</v>
+        <v>1.685987700879177</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.693200235462749</v>
@@ -37411,7 +37261,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.678935406400737</v>
+        <v>1.712008231485519</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.586579692343332</v>
@@ -37500,7 +37350,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.654206786595081</v>
+        <v>1.685481888914287</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.041575050480784</v>
@@ -37589,7 +37439,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673646865464264</v>
+        <v>1.70057908183957</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.995668871954026</v>
@@ -37678,7 +37528,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.643947683169905</v>
+        <v>1.668700832173867</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.072281067157494</v>
@@ -37767,7 +37617,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622020549145758</v>
+        <v>1.647548055514211</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.523311907314266</v>
@@ -37856,7 +37706,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608281646133208</v>
+        <v>1.625026203514673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.829020258489044</v>
@@ -37945,7 +37795,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59035916201005</v>
+        <v>1.608616153819425</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.879248745613992</v>
@@ -38034,7 +37884,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.583674828038917</v>
+        <v>1.60056494464364</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.029003052125757</v>
@@ -38123,7 +37973,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.597970309324801</v>
+        <v>1.613655771685398</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.794512745713139</v>
@@ -38212,7 +38062,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596133609305309</v>
+        <v>1.611748980561915</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.868260869341606</v>
@@ -38301,7 +38151,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.58078614575133</v>
+        <v>1.593497043647612</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.834285565309379</v>
@@ -38390,7 +38240,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589606236423607</v>
+        <v>1.600654463712861</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.825018539184219</v>
@@ -38479,7 +38329,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587540194034828</v>
+        <v>1.595351652883234</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.936164467616381</v>
@@ -38568,7 +38418,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.573380414679127</v>
+        <v>1.57935835431274</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.823799908281098</v>
@@ -38657,7 +38507,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.570722903210044</v>
+        <v>1.578285161081953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.638038470494557</v>
@@ -38746,7 +38596,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.55745395380601</v>
+        <v>1.568202253940225</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.567447682890066</v>
@@ -38835,7 +38685,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.576141859394078</v>
+        <v>1.591069685959127</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.682622267566651</v>
@@ -38924,7 +38774,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.575630038842022</v>
+        <v>1.593467284286463</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.988832533777033</v>
@@ -39013,7 +38863,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589167522177413</v>
+        <v>1.601417930610497</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.57938218750109</v>
@@ -39102,7 +38952,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.600786076164797</v>
+        <v>1.615994261977886</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.060328177676333</v>
@@ -39191,7 +39041,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.599823669455211</v>
+        <v>1.620858980452663</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.842085367419267</v>
@@ -39280,7 +39130,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.607939067994483</v>
+        <v>1.630112566979504</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.847117169731814</v>
@@ -39369,7 +39219,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640787848275389</v>
+        <v>1.666403095724282</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.708924138216303</v>
@@ -39458,7 +39308,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.628312664952184</v>
+        <v>1.653451503191295</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.571594682227356</v>
@@ -39547,7 +39397,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.633387100258833</v>
+        <v>1.65835476320661</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.783868625479243</v>
@@ -39636,7 +39486,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.639147054896129</v>
+        <v>1.671207969313605</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.926851834465254</v>
@@ -39725,7 +39575,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.639719521016789</v>
+        <v>1.674210650130509</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.730558564608742</v>
@@ -39814,7 +39664,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.662039240263978</v>
+        <v>1.700080451905651</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.918298087817795</v>
@@ -39903,7 +39753,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.677763829269515</v>
+        <v>1.711392836084291</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.017087650528063</v>
@@ -39992,7 +39842,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.653636158897686</v>
+        <v>1.693149073705195</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.013693240592084</v>
@@ -40081,7 +39931,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.661212347625538</v>
+        <v>1.696019411113037</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.920073203587031</v>
